--- a/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/マルチスレッドプログラミングの基礎同期手法一覧.xlsx
+++ b/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/マルチスレッドプログラミングの基礎同期手法一覧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
   <si>
     <t>同期方法</t>
     <rPh sb="0" eb="2">
@@ -252,16 +252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(依)</t>
-  </si>
-  <si>
-    <t>(依)</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロセス
 間同期</t>
     <rPh sb="5" eb="6">
@@ -387,25 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・待機方法 … B：ビジーウェイト、S：スリープ、B+S：一定回数ビジーウェイト後にスリープ</t>
-    <rPh sb="1" eb="3">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・（?）：調査不完全につき不明</t>
     <rPh sb="5" eb="7">
       <t>チョウサ</t>
@@ -433,10 +404,6 @@
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×-E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,10 +547,6 @@
   </si>
   <si>
     <t>(?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（?）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -852,10 +815,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マルチスレッド専用の仕組みではない。広範囲に活用できる。</t>
     <rPh sb="7" eb="9">
       <t>センヨウ</t>
@@ -1056,6 +1015,83 @@
   </si>
   <si>
     <t>インラインアセンブラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先物</t>
+    <rPh sb="0" eb="2">
+      <t>サキモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>promise と future</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(依)?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（?）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×-E
+R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再帰ロックしたい場合は、専用のミューテックスクラスを用いる。</t>
+    <rPh sb="0" eb="2">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（?）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I, Q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・待機方法 … B：ビジーウェイト、S：スリープ、B+S：一定回数ビジーウェイト後にスリープ, I：割り込み, Q：キューイング</t>
+    <rPh sb="1" eb="3">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1611,7 +1647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1770,6 +1806,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2099,7 +2138,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2116,12 +2155,12 @@
     <col min="6" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.5" customWidth="1"/>
+    <col min="10" max="10" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="54.75" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -2130,7 +2169,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>24</v>
@@ -2142,28 +2181,28 @@
         <v>35</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickTop="1">
-      <c r="A2" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
+      <c r="A2" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="A3" s="10" t="s">
@@ -2185,16 +2224,16 @@
         <v>27</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>71</v>
-      </c>
       <c r="J3" s="37" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27">
@@ -2214,19 +2253,19 @@
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="J4" s="37" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27">
@@ -2237,10 +2276,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>17</v>
@@ -2249,21 +2288,21 @@
         <v>27</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27">
       <c r="A6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>9</v>
@@ -2275,33 +2314,33 @@
         <v>0.19776199999999999</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27">
       <c r="A7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="17">
         <v>4.8806659999999997</v>
@@ -2310,28 +2349,28 @@
         <v>17</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="33">
         <v>4.9038430000000002</v>
@@ -2340,20 +2379,20 @@
         <v>17</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="27">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -2361,48 +2400,50 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="D9" s="16">
         <v>0.65003699999999998</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="39" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
+      <c r="A10" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
@@ -2417,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>27</v>
@@ -2426,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2434,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
@@ -2449,7 +2490,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>27</v>
@@ -2458,7 +2499,7 @@
         <v>27</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2466,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
@@ -2481,7 +2522,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>27</v>
@@ -2490,12 +2531,12 @@
         <v>27</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>1</v>
@@ -2513,7 +2554,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>27</v>
@@ -2525,10 +2566,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
@@ -2543,7 +2584,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>27</v>
@@ -2554,25 +2595,25 @@
       <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
+      <c r="A16" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" ht="27">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
@@ -2581,37 +2622,37 @@
         <v>0.91441499999999998</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="A18" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" ht="27">
       <c r="A19" s="3" t="s">
@@ -2627,22 +2668,22 @@
         <v>8.1866040000000009</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="27">
@@ -2650,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>19</v>
@@ -2659,19 +2700,19 @@
         <v>0.60754900000000001</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>69</v>
       </c>
       <c r="J20" s="37"/>
     </row>
@@ -2683,37 +2724,37 @@
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="17">
         <v>0.568886</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="27">
       <c r="A22" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="17">
         <v>4.6363279999999998</v>
@@ -2722,28 +2763,28 @@
         <v>17</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="16">
         <v>4.7871519999999999</v>
@@ -2752,13 +2793,13 @@
         <v>17</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>20</v>
@@ -2766,18 +2807,18 @@
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
@@ -2793,16 +2834,16 @@
         <v>0.94445800000000002</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>23</v>
@@ -2811,43 +2852,43 @@
     </row>
     <row r="26" spans="1:10" ht="27">
       <c r="A26" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>105</v>
-      </c>
       <c r="F26" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I26" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="42" t="s">
         <v>102</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="27">
       <c r="A27" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="17">
         <v>2.102039</v>
@@ -2856,28 +2897,28 @@
         <v>17</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="33">
         <v>2.0795300000000001</v>
@@ -2886,13 +2927,13 @@
         <v>17</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>20</v>
@@ -2907,22 +2948,22 @@
         <v>14</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D29" s="16">
         <v>0.75804199999999999</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>18</v>
@@ -2930,216 +2971,261 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
+      <c r="A30" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B32" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A36" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A34" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E36" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="21" t="s">
+      <c r="H36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="29" t="s">
-        <v>81</v>
-      </c>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="29" t="s">
-        <v>83</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="29" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="29" t="s">
-        <v>29</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="29" t="s">
-        <v>73</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="29" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="29" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="30" t="s">
-        <v>58</v>
+      <c r="A49" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A33:J33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/マルチスレッドプログラミングの基礎同期手法一覧.xlsx
+++ b/document/仕様・設計書/マルチスレッド制御/_挿入オブジェクト保存用/マルチスレッドプログラミングの基礎/マルチスレッドプログラミングの基礎同期手法一覧.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
   <si>
     <t>同期方法</t>
     <rPh sb="0" eb="2">
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Posix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリティカルセクション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,10 +138,6 @@
   </si>
   <si>
     <t>IPC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Posix</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -652,10 +644,6 @@
   </si>
   <si>
     <t>○?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Posix</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -730,19 +718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　　　　　　　　ロック取得 10,000,000 回実行時の処理時間　※Posix, SytemVの計測はやや不利な状況</t>
-    <rPh sb="53" eb="55">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>フリ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -796,10 +771,6 @@
   </si>
   <si>
     <t>Call Once</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Posix</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1091,6 +1062,26 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSIX</t>
+  </si>
+  <si>
+    <t>POSIX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　ロック取得 10,000,000 回実行時の処理時間　※POSIX, SytemVの計測はやや不利な状況</t>
+    <rPh sb="53" eb="55">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フリ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2142,7 +2133,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2160,39 +2151,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="54.75" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickTop="1">
       <c r="A2" s="57" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -2206,227 +2197,227 @@
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="33">
         <v>0.188224</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="17">
         <v>0.57994400000000002</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="34">
         <v>0.19776199999999999</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="17">
         <v>4.8806659999999997</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="33">
         <v>4.9038430000000002</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="27">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D9" s="16">
         <v>0.65003699999999998</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -2443,31 +2434,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="50">
         <v>6.5440000000000003E-3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2475,31 +2466,31 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="51">
         <v>8.3770000000000008E-3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2507,96 +2498,96 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="44">
         <v>0.12600500000000001</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="34">
         <v>0.127556</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="35">
         <v>0.12400700000000001</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
@@ -2610,39 +2601,39 @@
     </row>
     <row r="17" spans="1:10" ht="27">
       <c r="A17" s="10" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="17">
         <v>0.91441499999999998</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -2656,153 +2647,153 @@
     </row>
     <row r="19" spans="1:10" ht="27">
       <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="15">
         <v>8.1866040000000009</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="27">
       <c r="A20" s="10" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17">
         <v>0.60754900000000001</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="10" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="17">
         <v>0.568886</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="27">
       <c r="A22" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="17">
         <v>4.6363279999999998</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="16">
         <v>4.7871519999999999</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="39"/>
     </row>
@@ -2822,157 +2813,157 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="15">
         <v>0.94445800000000002</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" ht="27">
       <c r="A26" s="24" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="27">
       <c r="A27" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="17">
         <v>2.102039</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="33">
         <v>2.0795300000000001</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" s="16">
         <v>0.75804199999999999</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -2986,69 +2977,69 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B32" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="39" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="54" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -3062,37 +3053,37 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
@@ -3106,114 +3097,114 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" thickBot="1">
       <c r="A36" s="18" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="29" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
